--- a/matrix/executed/windows/high speed server/high_speed_server.xlsx
+++ b/matrix/executed/windows/high speed server/high_speed_server.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED8B2E-73E8-46D4-B11E-BB02AE6C0644}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC81CC0-3189-4A41-935C-A43833061A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -252,10 +252,62 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -500,15 +552,143 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -4246,14 +4426,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
@@ -4262,7 +4447,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02CE530-23A7-4ED9-872D-6FAF35860422}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4302,20 +4487,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
@@ -4324,7 +4514,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9F5EA6-CC82-497F-8FEB-04770A46FC2E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4364,20 +4554,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
@@ -4386,7 +4581,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225A2B32-4290-4B1C-9D66-C64BE7EFF705}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4426,20 +4621,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
@@ -4448,7 +4648,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A291A2D-38BF-4B34-8AB9-1404215281AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4488,20 +4688,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
@@ -4510,7 +4715,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC42489-7813-4FD1-942F-2C18D5502A95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4550,20 +4755,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
@@ -4572,7 +4782,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5390F88-58D4-4ED0-ABEC-3DEA8B36599C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4612,20 +4822,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
@@ -4634,7 +4849,7 @@
                   <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B398E501-515B-472A-B1AA-4E15FB4DDFBA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4674,20 +4889,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
@@ -4696,7 +4916,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2830C0-DA40-4651-A3A8-5272CC07B500}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4736,20 +4956,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -4758,7 +4983,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78EAA21-A18F-4116-AAC1-A149580FC871}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4798,20 +5023,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
@@ -4820,7 +5050,7 @@
                   <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0E0C43-90D8-4CE1-B7A0-FFC940ADC94C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4860,20 +5090,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
@@ -4882,7 +5117,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C05117-1716-435E-AA39-3ECC4DA17F4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4922,20 +5157,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
@@ -4944,7 +5184,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8C07BE-98B5-4AC6-8752-46BA1676D587}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4984,6 +5224,941 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB24D2B-9F5A-4430-808B-B1F9210F606F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191FA0A6-70C6-445A-A905-4D2F6EED7733}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4434489C-4447-4403-93B9-94656BDFEFA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A116C681-2996-4C75-9A57-5B2714798B06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDA68CE-BB5C-47CC-8607-CD628D6D50B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA62933-DA3B-4093-8A9D-7E5E38D0EB2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AEA5533-8638-4DF8-A7F0-5AAE45ED31D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42D5218-594F-44F3-9563-DDF22C17D154}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1111"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9847C6-E9E6-4822-A5DA-D67212067E81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF83743-A77E-4ACE-9802-315CE3121809}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80648152-31A3-4BCE-AD3A-30942FA6D62A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F332EA5-82C6-42E3-9752-797E98161EB4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9344A324-A141-4F7C-A024-7316C3D221E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E1DBA-EFFC-4F3C-B747-28C6DDB31AD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -4994,19 +6169,1935 @@
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="390525" cy="295275"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+            <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1102"/>
+                  <a14:compatExt spid="_x0000_s1117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D7D5B5-C562-477C-94E3-7BF8E046DCE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2568F708-3099-4BDA-AE8C-CB00A2B03829}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F519C8-A942-4DFB-94B6-2E6A605DC38B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D409D94F-DC17-400B-8A2C-67B806CD492A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432DC343-0133-46E3-9854-9FA3C359C9A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7972D29-1014-445A-8164-BAB383D12438}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE6DAB9-E995-4970-BCA9-4EE889635D9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84488DA-E329-4F91-90CB-CE6F79B20483}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1124"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1431F418-7F59-4E76-A5D4-E4495AD49C02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAFF0F4-2547-485B-A6D8-72D01C6029B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1126" name="Check Box 102" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1126"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C5403C-1440-4C63-9318-E18D927549F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1127" name="Check Box 103" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1127"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB70221C-287D-45BB-ABE4-7C19A3554B76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1128" name="Check Box 104" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1128"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A5A1CD-DA5F-46DD-9455-3AF3D4648869}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1129" name="Check Box 105" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1129"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624D6A5-8A45-4B51-B6F1-E9B9DDE3D67E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1130" name="Check Box 106" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1ECFE6-D44D-4411-8B24-31A33FCCABD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1131" name="Check Box 107" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA77239-DF32-4E0A-B4A1-D72206D425E4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1132" name="Check Box 108" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1132"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D20D29-FB74-4B0E-9068-40889A4C4397}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1133" name="Check Box 109" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1133"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFCBD1D-43A4-426D-8FCC-555C8DF84005}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAC3DAD-C97A-421B-A5D0-BFABC092F4BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4362450" y="2038350"/>
+          <a:ext cx="619125" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1134" name="Check Box 110" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1134"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14F0002-C4C1-42EE-ADC2-C5C8DBBF01B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1135" name="Check Box 111" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1135"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FC5857-27CB-463E-BDFE-3BD380955A66}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1136" name="Check Box 112" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1136"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D19331-CF9A-45D9-8248-5A04BF415745}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1137" name="Check Box 113" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1137"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A5D62C-AA86-4049-BB16-CC1EBC944187}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1138" name="Check Box 114" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1138"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4AD82E-6D21-41A5-A1C7-EC4F713F88CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1139" name="Check Box 115" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1139"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C4F859-B2E3-4834-A581-3EA50AF2AC0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1140" name="Check Box 116" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1140"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9A5377-9238-4A59-BE45-859547B098D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1141" name="Check Box 117" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1141"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F32C2D-A018-4616-8B59-5B87F7CB5B9C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1142" name="Check Box 118" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1142"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3F7048-FAFE-4C98-A155-42443F5A2FEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1143"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FD58B7-EAF2-4082-8AC9-F2747169D3C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1144"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F130F5-DDF2-4440-BA0A-31F876EA0309}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1145" name="Check Box 121" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1145"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9016675F-20B2-4ECF-BC5B-F680AC44D672}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1146" name="Check Box 122" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A124378-47BD-406C-BFFD-48914C713F59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1147" name="Check Box 123" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1147"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE36ABB-7E32-416E-9A03-F97B5AA9E6E3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5316,10 +8407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5614,6 +8705,181 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7096,6 +10362,996 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId70" name="Check Box 79">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId71" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1105" r:id="rId72" name="Check Box 81">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1106" r:id="rId73" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1107" r:id="rId74" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId75" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId76" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1110" r:id="rId77" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1111" r:id="rId78" name="Check Box 87">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1112" r:id="rId79" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1113" r:id="rId80" name="Check Box 89">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1114" r:id="rId81" name="Check Box 90">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1115" r:id="rId82" name="Check Box 91">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1116" r:id="rId83" name="Check Box 92">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1117" r:id="rId84" name="Check Box 93">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1118" r:id="rId85" name="Check Box 94">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1119" r:id="rId86" name="Check Box 95">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1120" r:id="rId87" name="Check Box 96">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1121" r:id="rId88" name="Check Box 97">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1122" r:id="rId89" name="Check Box 98">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1123" r:id="rId90" name="Check Box 99">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1124" r:id="rId91" name="Check Box 100">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1125" r:id="rId92" name="Check Box 101">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1126" r:id="rId93" name="Check Box 102">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1127" r:id="rId94" name="Check Box 103">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1128" r:id="rId95" name="Check Box 104">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1129" r:id="rId96" name="Check Box 105">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1130" r:id="rId97" name="Check Box 106">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1131" r:id="rId98" name="Check Box 107">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1132" r:id="rId99" name="Check Box 108">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1133" r:id="rId100" name="Check Box 109">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1134" r:id="rId101" name="Check Box 110">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1135" r:id="rId102" name="Check Box 111">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1136" r:id="rId103" name="Check Box 112">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1137" r:id="rId104" name="Check Box 113">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1138" r:id="rId105" name="Check Box 114">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1139" r:id="rId106" name="Check Box 115">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1140" r:id="rId107" name="Check Box 116">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1141" r:id="rId108" name="Check Box 117">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1142" r:id="rId109" name="Check Box 118">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1143" r:id="rId110" name="Check Box 119">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1144" r:id="rId111" name="Check Box 120">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1145" r:id="rId112" name="Check Box 121">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1146" r:id="rId113" name="Check Box 122">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1147" r:id="rId114" name="Check Box 123">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
